--- a/data/card_collection_part2_annotated.xlsx
+++ b/data/card_collection_part2_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennysh/public_git/ToppsCollection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A095CF-76F0-9C4E-A9B2-26A78E9B22C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919C6FE-F820-1B48-B0D2-C726E15E8270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="24740" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10587" uniqueCount="3797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10869" uniqueCount="3890">
   <si>
     <t>name</t>
   </si>
@@ -11411,6 +11411,285 @@
   </si>
   <si>
     <t>/ViewCard.cfm/sid/1411/cid/251504/2000-Topps-131-Dwight-Gooden</t>
+  </si>
+  <si>
+    <t>Felix Hernandez</t>
+  </si>
+  <si>
+    <t>https://www.tcdb.com/Person.cfm/pid/2564/col/Y/yea/0/Felix-Hernandez?sTeam=&amp;sCardNum=&amp;sNote=&amp;sSetName=Topps&amp;sBrand=</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/1824/cid/211812/2005-Topps-688-Felix-Hernandez-/-Justin-Leone</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/1930/cid/207372/2006-Topps-242-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/1977/cid/193752/2007-Topps-435-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/6625/cid/56925/2008-Topps-75-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/9074/cid/259809/2009-Topps-530-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/9821/cid/417455/2010-Topps-377-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/48224/cid/534598/2011-Topps-168-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/48224/cid/534665/2011-Topps-235-Felix-Hernandez-/-Clay-Buchholz-/-David-Price</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/48224/cid/1877384/2011-Topps-403-Felix-Hernandez-</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/48224/cid/1877511/2011-Topps-530-Felix-Hernandez-</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/48224/cid/1901160/2011-Topps-530-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/61443/cid/3676002/2012-Topps-232-Mariano-Rivera-/-Johan-Santana-/-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/61443/cid/4944870/2012-Topps-430-Felix-Hernandez-</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/61443/cid/4944871/2012-Topps-430-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/72762/cid/5507945/2013-Topps-34-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/72762/cid/5815531/2013-Topps-34-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/83630/cid/6665932/2014-Topps-401-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/83630/cid/6689743/2014-Topps-401-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/83630/cid/6689744/2014-Topps-401-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/97340/cid/7346787/2015-Topps-325-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/97340/cid/7361219/2015-Topps-325-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/97340/cid/7346803/2015-Topps-341-American-League-Earned-Run-Average-Leaders</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/115847/cid/8312699/2016-Topps-283-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/134018/cid/9466324/2017-Topps-243-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/134018/cid/9477778/2017-Topps-243-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/155909/cid/11364692/2018-Topps-567-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/155909/cid/11364693/2018-Topps-567-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/155909/cid/11364694/2018-Topps-567-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/182808/cid/13161364/2019-Topps-699-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/182808/cid/13161365/2019-Topps-699-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/209948/cid/14727607/2020-Topps-521-Felix-Hernandez</t>
+  </si>
+  <si>
+    <t>Pete Rose</t>
+  </si>
+  <si>
+    <t>https://www.tcdb.com/Person.cfm/pid/5065/col/Y/yea/0/Pete-Rose?sTeam=&amp;sCardNum=&amp;sNote=&amp;sSetName=Topps&amp;sBrand=</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/60/cid/10854/1963-Topps-537-Pedro-Gonzalez-/-Ken-McMullen-/-Pete-Rose-/-Al-Weis</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/61/cid/11019/1964-Topps-125-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/64/cid/11690/1965-Topps-207-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/65/cid/28930/1966-Topps-30-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/66/cid/14041/1967-Topps-430-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/68/cid/29785/1968-Topps-230-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/69/cid/30202/1969-Topps-2-1968-NL-Batting-Leaders---Pete-Rose-/-Matty-Alou-/-Felipe-Alou</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/69/cid/30326/1969-Topps-120-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/69/cid/30632/1969-Topps-424-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/70/cid/14890/1970-Topps-61-1969-N.L.-Batting-Leaders</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/70/cid/15291/1970-Topps-458-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/70/cid/15414/1970-Topps-580-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/71/cid/15655/1971-Topps-100-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/72/cid/16963/1972-Topps-559-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/72/cid/16964/1972-Topps-560-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/73/cid/17334/1973-Topps-130-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/74/cid/31109/1974-Topps-201-1973-Batting-Leaders---Rod-Carew-/-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/74/cid/31211/1974-Topps-300-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/74/cid/31248/1974-Topps-336-All-Star-Left-Fielders---Bobby-Murcer-/-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/76/cid/18709/1975-Topps-211-1973-MVPs---Reggie-Jackson-/-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/76/cid/18818/1975-Topps-320-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/77/cid/19398/1976-Topps-240-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/79/cid/20095/1977-Topps-277-1976-N.L.-Championship</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/79/cid/20268/1977-Topps-450-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/80/cid/20483/1978-Topps-5-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/80/cid/20498/1978-Topps-20-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/81/cid/21454/1979-Topps-204-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/81/cid/21901/1979-Topps-650-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/82/cid/31604/1980-Topps-4-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/82/cid/32142/1980-Topps-540-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/85/cid/23470/1981-Topps-180-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/85/cid/23495/1981-Topps-205-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/89/cid/24152/1982-Topps-4-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/89/cid/24485/1982-Topps-337-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/89/cid/24787/1982-Topps-636-Phillies-Team-Leaders---Pete-Rose-/-Steve-Carlton</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/89/cid/24931/1982-Topps-780-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/89/cid/24932/1982-Topps-781-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/93/cid/25175/1983-Topps-100-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/93/cid/25176/1983-Topps-101-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/93/cid/25472/1983-Topps-397-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/98/cid/33400/1984-Topps-300-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/103/cid/34106/1985-Topps-6-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/103/cid/34647/1985-Topps-547-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/103/cid/34700/1985-Topps-600-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/12690/1986-Topps-1-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/12691/1986-Topps-2-Rose-Special:-'63-'66</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/12692/1986-Topps-3-Rose-Special:-'67-'70</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/12693/1986-Topps-4-Rose-Special:-'71-'74</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/12694/1986-Topps-5-Rose-Special:-'75-'78</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/12695/1986-Topps-6-Rose-Special:-'79-'82</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/12696/1986-Topps-7-Rose-Special:-'83-'85</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/12895/1986-Topps-206-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/110/cid/13430/1986-Topps-741-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/117/cid/35451/1987-Topps-200-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/117/cid/35532/1987-Topps-281-Reds-Leaders---Pete-Rose-/-Bill-Gullickson-/-Bo-Diaz</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/117/cid/35645/1987-Topps-393-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/125/cid/54278/1988-Topps-475-Pete-Rose</t>
+  </si>
+  <si>
+    <t>/ViewCard.cfm/sid/134/cid/36756/1989-Topps-505-Pete-Rose</t>
   </si>
 </sst>
 </file>
@@ -12252,11 +12531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3554"/>
+  <dimension ref="A1:D3648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3554" sqref="A3554"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61794,6 +62073,1322 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3555" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3555" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3555" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D3555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3556" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3556" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3556" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D3556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3557" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3557" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3557" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D3557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3558" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3558" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3558" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D3558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3559" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3559" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3559" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D3559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3560" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3560" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3560" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D3560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3561" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3561" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3561" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D3561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3562" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3562" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3562" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D3562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3563" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3563" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3563" t="s">
+        <v>3805</v>
+      </c>
+      <c r="D3563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3564" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3564" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3564" t="s">
+        <v>3806</v>
+      </c>
+      <c r="D3564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3565" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3565" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3565" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D3565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3566" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3566" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3566" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D3566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3567" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3567" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3567" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D3567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3568" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3568" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3568" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D3568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3569" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3569" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3569" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D3569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3570" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3570" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3570" t="s">
+        <v>3811</v>
+      </c>
+      <c r="D3570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3571" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3571" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3571" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D3571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3572" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3572" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3572" t="s">
+        <v>3813</v>
+      </c>
+      <c r="D3572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3573" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3573" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3573" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D3573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3574" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3574" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3574" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D3574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3575" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3575" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3575" t="s">
+        <v>3816</v>
+      </c>
+      <c r="D3575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3576" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3576" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3576" t="s">
+        <v>3817</v>
+      </c>
+      <c r="D3576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3577" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3577" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3577" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D3577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3578" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3578" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3578" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D3578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3579" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3579" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3579" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D3579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3580" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3580" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3580" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D3580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3581" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3581" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3581" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D3581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3582" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3582" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3582" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D3582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3583" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3583" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3583" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D3583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3584" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3584" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3584" t="s">
+        <v>3825</v>
+      </c>
+      <c r="D3584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3585" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3585" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3585" t="s">
+        <v>3826</v>
+      </c>
+      <c r="D3585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3586" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3586" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3586" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D3586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3587" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3587" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3587" t="s">
+        <v>3828</v>
+      </c>
+      <c r="D3587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3588" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3588" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3588" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D3588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3589" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3589" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3589" t="s">
+        <v>3832</v>
+      </c>
+      <c r="D3589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3590" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3590" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3590" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D3590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3591" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3591" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3591" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D3591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3592" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3592" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3592" t="s">
+        <v>3835</v>
+      </c>
+      <c r="D3592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3593" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3593" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3593" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D3593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3594" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3594" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3594" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D3594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3595" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3595" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3595" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D3595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3596" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3596" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3596" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D3596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3597" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3597" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3597" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D3597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3598" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3598" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3598" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D3598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3599" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3599" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3599" t="s">
+        <v>3842</v>
+      </c>
+      <c r="D3599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3600" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3600" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3600" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D3600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3601" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3601" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3601" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D3601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3602" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3602" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3602" t="s">
+        <v>3845</v>
+      </c>
+      <c r="D3602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3603" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3603" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3603" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D3603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3604" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3604" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3604" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D3604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3605" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3605" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3605" t="s">
+        <v>3848</v>
+      </c>
+      <c r="D3605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3606" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3606" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3606" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D3606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3607" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3607" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3607" t="s">
+        <v>3850</v>
+      </c>
+      <c r="D3607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3608" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3608" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3608" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D3608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3609" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3609" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3609" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D3609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3610" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3610" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3610" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D3610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3611" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3611" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3611" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D3611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3612" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3612" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3612" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D3612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3613" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3613" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3613" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D3613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3614" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3614" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3614" t="s">
+        <v>3857</v>
+      </c>
+      <c r="D3614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3615" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3615" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3615" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D3615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3616" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3616" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3616" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D3616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3617" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3617" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3617" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D3617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3618" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3618" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3618" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D3618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3619" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3619" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3619" t="s">
+        <v>3862</v>
+      </c>
+      <c r="D3619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3620" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3620" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3620" t="s">
+        <v>3863</v>
+      </c>
+      <c r="D3620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3621" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3621" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3621" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D3621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3622" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3622" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3622" t="s">
+        <v>3865</v>
+      </c>
+      <c r="D3622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3623" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3623" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3623" t="s">
+        <v>3866</v>
+      </c>
+      <c r="D3623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3624" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3624" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3624" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D3624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3625" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3625" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3625" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D3625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3626" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3626" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3626" t="s">
+        <v>3869</v>
+      </c>
+      <c r="D3626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3627" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3627" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3627" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D3627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3628" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3628" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3628" t="s">
+        <v>3871</v>
+      </c>
+      <c r="D3628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3629" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3629" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3629" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D3629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3630" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3630" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3630" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D3630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3631" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3631" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3631" t="s">
+        <v>968</v>
+      </c>
+      <c r="D3631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3632" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3632" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3632" t="s">
+        <v>3873</v>
+      </c>
+      <c r="D3632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3633" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3633" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3633" t="s">
+        <v>3874</v>
+      </c>
+      <c r="D3633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3634" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3634" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3634" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D3634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3635" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3635" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3635" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D3635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3636" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3636" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3636" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D3636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3637" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3637" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3637" t="s">
+        <v>3878</v>
+      </c>
+      <c r="D3637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3638" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3638" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3638" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D3638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3639" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3639" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3639" t="s">
+        <v>3880</v>
+      </c>
+      <c r="D3639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3640" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3640" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3640" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D3640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3641" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3641" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3641" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D3641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3642" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3642" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3642" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D3642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3643" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3643" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3643" t="s">
+        <v>3884</v>
+      </c>
+      <c r="D3643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3644" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3644" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3644" t="s">
+        <v>3885</v>
+      </c>
+      <c r="D3644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3645" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3645" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3645" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D3645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3646" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3646" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3646" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D3646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3647" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3647" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3647" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D3647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3648" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3648" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C3648" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D3648">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
